--- a/results/Results_backward.xlsx
+++ b/results/Results_backward.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Number of Components</t>
+  </si>
+  <si>
+    <t>Train Error</t>
+  </si>
+  <si>
+    <t>Test Error</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +63,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,401 +379,389 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Number of Components</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Train Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Test Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>26</v>
       </c>
-      <c r="C2" t="n">
-        <v>10008.80509615827</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10773.08371483983</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C2">
+        <v>5336.295653216764</v>
+      </c>
+      <c r="D2">
+        <v>5758.547643220669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>25</v>
       </c>
-      <c r="C3" t="n">
-        <v>9920.418818305196</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10681.66752719025</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="C3">
+        <v>5362.620440879325</v>
+      </c>
+      <c r="D3">
+        <v>5733.362909261602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>24</v>
       </c>
-      <c r="C4" t="n">
-        <v>9923.155755125126</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10683.98685843569</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C4">
+        <v>5348.139040614248</v>
+      </c>
+      <c r="D4">
+        <v>5734.117792071782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>23</v>
       </c>
-      <c r="C5" t="n">
-        <v>9919.971240322642</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10680.66323087267</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="C5">
+        <v>5354.601145259317</v>
+      </c>
+      <c r="D5">
+        <v>5753.383804779655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>22</v>
       </c>
-      <c r="C6" t="n">
-        <v>9923.099314172268</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10683.9328850051</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C6">
+        <v>5352.034987631874</v>
+      </c>
+      <c r="D6">
+        <v>5735.215242346551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>21</v>
       </c>
-      <c r="C7" t="n">
-        <v>9925.893619414886</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10686.54735095987</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C7">
+        <v>5344.531128077642</v>
+      </c>
+      <c r="D7">
+        <v>5743.210434820951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" t="n">
-        <v>9922.244077962285</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10682.94483418027</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="C8">
+        <v>5351.575139886124</v>
+      </c>
+      <c r="D8">
+        <v>5727.156872755687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>19</v>
       </c>
-      <c r="C9" t="n">
-        <v>9927.315794479115</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10688.03101088354</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="C9">
+        <v>5348.049942446909</v>
+      </c>
+      <c r="D9">
+        <v>5730.042487316893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>18</v>
       </c>
-      <c r="C10" t="n">
-        <v>9921.593947737041</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10682.48779485711</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="C10">
+        <v>5353.977840987027</v>
+      </c>
+      <c r="D10">
+        <v>5739.697069623657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>17</v>
       </c>
-      <c r="C11" t="n">
-        <v>9921.316239252812</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10682.03271786363</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="C11">
+        <v>5346.043071453499</v>
+      </c>
+      <c r="D11">
+        <v>5742.293230232953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>16</v>
       </c>
-      <c r="C12" t="n">
-        <v>9929.444116463725</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10690.13832526317</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="C12">
+        <v>5357.341576886479</v>
+      </c>
+      <c r="D12">
+        <v>5736.052671572523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>15</v>
       </c>
-      <c r="C13" t="n">
-        <v>9922.726666518372</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10683.12209991964</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="C13">
+        <v>5357.867406713085</v>
+      </c>
+      <c r="D13">
+        <v>5765.771233726332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>14</v>
       </c>
-      <c r="C14" t="n">
-        <v>9927.129545521504</v>
-      </c>
-      <c r="D14" t="n">
-        <v>10687.98608813062</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="C14">
+        <v>5359.346980351814</v>
+      </c>
+      <c r="D14">
+        <v>5738.803776032456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" t="n">
-        <v>9925.679159453583</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10686.66095167751</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="C15">
+        <v>5356.835614951045</v>
+      </c>
+      <c r="D15">
+        <v>5747.098982278722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" t="n">
-        <v>9933.775312357244</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10694.76002998553</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="C16">
+        <v>5359.127316633092</v>
+      </c>
+      <c r="D16">
+        <v>5746.633213175965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>11</v>
       </c>
-      <c r="C17" t="n">
-        <v>9935.844711825941</v>
-      </c>
-      <c r="D17" t="n">
-        <v>10696.77287912707</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="C17">
+        <v>5357.277567814412</v>
+      </c>
+      <c r="D17">
+        <v>5747.741236771391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18" t="n">
-        <v>9924.304199965902</v>
-      </c>
-      <c r="D18" t="n">
-        <v>10684.94490013127</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="C18">
+        <v>5356.67467097759</v>
+      </c>
+      <c r="D18">
+        <v>5750.295708576428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>9</v>
       </c>
-      <c r="C19" t="n">
-        <v>9921.646488789887</v>
-      </c>
-      <c r="D19" t="n">
-        <v>10683.00452595668</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="C19">
+        <v>5356.177980150022</v>
+      </c>
+      <c r="D19">
+        <v>5736.449910143629</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>8</v>
       </c>
-      <c r="C20" t="n">
-        <v>9922.914415264626</v>
-      </c>
-      <c r="D20" t="n">
-        <v>10683.39056492623</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="C20">
+        <v>5357.252053544581</v>
+      </c>
+      <c r="D20">
+        <v>5743.333631539773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" t="n">
-        <v>9922.722756212905</v>
-      </c>
-      <c r="D21" t="n">
-        <v>10683.35538713066</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="C21">
+        <v>5362.164401105688</v>
+      </c>
+      <c r="D21">
+        <v>5743.531042961929</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>6</v>
       </c>
-      <c r="C22" t="n">
-        <v>9929.5032831833</v>
-      </c>
-      <c r="D22" t="n">
-        <v>10690.34189777203</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="C22">
+        <v>5363.39882664694</v>
+      </c>
+      <c r="D22">
+        <v>5752.723399757932</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>5</v>
       </c>
-      <c r="C23" t="n">
-        <v>9926.24932206439</v>
-      </c>
-      <c r="D23" t="n">
-        <v>10686.90197450973</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="C23">
+        <v>5365.692252438175</v>
+      </c>
+      <c r="D23">
+        <v>5745.116253974221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>4</v>
       </c>
-      <c r="C24" t="n">
-        <v>9920.906366120425</v>
-      </c>
-      <c r="D24" t="n">
-        <v>10681.22743244285</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="C24">
+        <v>5362.901181615807</v>
+      </c>
+      <c r="D24">
+        <v>5733.881007139159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>3</v>
       </c>
-      <c r="C25" t="n">
-        <v>9939.385520999333</v>
-      </c>
-      <c r="D25" t="n">
-        <v>10700.61688423223</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="C25">
+        <v>5365.589324231218</v>
+      </c>
+      <c r="D25">
+        <v>5745.668708087685</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" t="n">
-        <v>9922.118886499709</v>
-      </c>
-      <c r="D26" t="n">
-        <v>10682.58422885273</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="C26">
+        <v>5366.093284960841</v>
+      </c>
+      <c r="D26">
+        <v>5743.34392369852</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" t="n">
-        <v>9947.0241299974</v>
-      </c>
-      <c r="D27" t="n">
-        <v>10708.42888586342</v>
+      <c r="C27">
+        <v>5306.65507720475</v>
+      </c>
+      <c r="D27">
+        <v>5661.106198416584</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>